--- a/src/main/resources/Search.xlsx
+++ b/src/main/resources/Search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEVI\IdeaProjects\EY-Trainings\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81CD5BB-1887-49CD-BAC6-1C64FAC0FF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4977E018-5DA4-4354-BBCE-9DCB3DBE6C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{68A24670-7FCF-4EFB-847C-506090B71860}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Scriptname</t>
   </si>
   <si>
-    <t>Expected</t>
-  </si>
-  <si>
     <t>GB_08</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>SearchItem</t>
+  </si>
+  <si>
+    <t>ExpectedCount</t>
   </si>
 </sst>
 </file>
@@ -452,13 +452,14 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -469,33 +470,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>489</v>
@@ -503,13 +504,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>77</v>
@@ -517,13 +518,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1">
         <v>48</v>
